--- a/etsy-scraper/results/etsy_reviews_w_sentiment.xlsx
+++ b/etsy-scraper/results/etsy_reviews_w_sentiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>sentiment</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +556,10 @@
           <t>https://www.etsy.com/listing/1460562572/herbal-sleep-tea-relaxation-tea-loose</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1460562572</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tensor(1460562572)</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -569,14 +576,20 @@
           <t>SwedeeBird</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19.95</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>tensor(28.)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>tensor(19.9500)</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -595,11 +608,13 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>One of my favorite teas from the collection. Seriously makes me feel so nice and relaxed. The high quality of the tea is very apparent with its beautiful presentation, freshness, and soothing fragrance. Would recommend!</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>5</v>
+          <t>One of my favorite teas from the collection Seriously makes me feel so nice and relaxed The high quality of the tea is very apparent with its beautiful presentation freshness and soothing fragrance Would recommend</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -611,19 +626,32 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.9563</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>tensor(0.0350)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>tensor(0.5500)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>tensor(0.4150)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>tensor(0.9563)</t>
+        </is>
       </c>
       <c r="U2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -640,8 +668,10 @@
           <t>https://www.etsy.com/listing/1502837456/passion-flower-leaf-organic-dried-cut</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1502837456</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tensor(1502837456)</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -658,13 +688,21 @@
           <t>ShopEarthFolk</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3441</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>tensor(3441.)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>USD</t>
@@ -682,11 +720,13 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>First time ordering from this company,  good quality  at a great price.</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
+          <t>First time ordering from this company good quality at a great price</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -698,19 +738,32 @@
           <t>2024-06-13</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.7906</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>tensor(0.5880)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>tensor(0.4120)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>tensor(0.7906)</t>
+        </is>
       </c>
       <c r="U3" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -727,8 +780,10 @@
           <t>https://www.etsy.com/listing/953560672/organic-valerian-root-1lb-cs-tea</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>953560672</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tensor(953560672)</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -745,13 +800,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>USD</t>
@@ -769,11 +832,13 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>It works great...will buy again</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
+          <t>It works great will buy again</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -785,21 +850,34 @@
           <t>2024-09-10</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>neutral</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -814,8 +892,10 @@
           <t>https://www.etsy.com/listing/953560672/organic-valerian-root-1lb-cs-tea</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>953560672</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tensor(953560672)</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -832,13 +912,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>USD</t>
@@ -856,11 +944,13 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>It works great...will buy again</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
+          <t>It works great will buy again</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>tensor(4.)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -872,21 +962,34 @@
           <t>2024-09-10</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
           <t>neutral</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -901,8 +1004,10 @@
           <t>https://www.etsy.com/listing/953560672/organic-valerian-root-1lb-cs-tea</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>953560672</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tensor(953560672)</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,13 +1024,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>USD</t>
@@ -943,11 +1056,13 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Awesome stuff great for sleeping tea.   Super stoked bout it</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
+          <t>Awesome stuff great for sleeping tea Super stoked bout it</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -959,19 +1074,32 @@
           <t>2024-07-09</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.9201</v>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>tensor(0.3660)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>tensor(0.6340)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>tensor(0.9201)</t>
+        </is>
       </c>
       <c r="U6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -988,8 +1116,10 @@
           <t>https://www.etsy.com/listing/953560672/organic-valerian-root-1lb-cs-tea</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>953560672</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tensor(953560672)</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1006,13 +1136,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1033,8 +1171,10 @@
           <t>Will buy from you again</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>5</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1046,21 +1186,34 @@
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
           <t>neutral</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1075,8 +1228,10 @@
           <t>https://www.etsy.com/listing/804090775/chamomile-loose-leaf-herbal-tea-floral</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>804090775</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tensor(804090775)</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1093,13 +1248,21 @@
           <t>Chaiwallahmargate</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1053</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>tensor(1053.)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1117,12 +1280,13 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Very speedy delivery 
-Beautiful product</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
+          <t>Very speedy delivery Beautiful product</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1134,19 +1298,32 @@
           <t>2024-08-15</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.6326000000000001</v>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>tensor(0.4900)</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>tensor(0.5100)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>tensor(0.6326)</t>
+        </is>
       </c>
       <c r="U8" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1163,8 +1340,10 @@
           <t>https://www.etsy.com/listing/804090775/chamomile-loose-leaf-herbal-tea-floral</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>804090775</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tensor(804090775)</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,13 +1360,21 @@
           <t>Chaiwallahmargate</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1053</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>tensor(1053.)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1205,11 +1392,13 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Great quality tea, eco packaging and quick delivery.</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>5</v>
+          <t>Great quality tea eco packaging and quick delivery</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1221,19 +1410,32 @@
           <t>2024-06-27</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.6249</v>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>tensor(0.6310)</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>tensor(0.3690)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>tensor(0.6249)</t>
+        </is>
       </c>
       <c r="U9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1250,8 +1452,10 @@
           <t>https://www.etsy.com/listing/804090775/chamomile-loose-leaf-herbal-tea-floral</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>804090775</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tensor(804090775)</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,13 +1472,21 @@
           <t>Chaiwallahmargate</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1053</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>tensor(1053.)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1292,11 +1504,13 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Lovely relaxing tea. Have a cup most evenings.</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>5</v>
+          <t>Lovely relaxing tea Have a cup most evenings</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1308,19 +1522,32 @@
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.7906</v>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>tensor(0.4620)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>tensor(0.5380)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>tensor(0.7906)</t>
+        </is>
       </c>
       <c r="U10" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1337,8 +1564,10 @@
           <t>https://www.etsy.com/listing/804090775/chamomile-loose-leaf-herbal-tea-floral</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>804090775</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tensor(804090775)</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1355,13 +1584,21 @@
           <t>Chaiwallahmargate</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1053</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>tensor(1053.)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1379,11 +1616,13 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Very nice fragrant tea, beautifully packaged and thank you for the sample tea bag. Really nice 😊</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>5</v>
+          <t>Very nice fragrant tea beautifully packaged and thank you for the sample tea bag Really nice</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1395,19 +1634,32 @@
           <t>2023-11-12</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.9563</v>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>tensor(0.4460)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>tensor(0.5540)</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>tensor(0.9563)</t>
+        </is>
       </c>
       <c r="U11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1424,8 +1676,10 @@
           <t>https://www.etsy.com/listing/895353511/organic-deep-sleep-blend-1-oz</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>895353511</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>tensor(895353511)</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1442,14 +1696,20 @@
           <t>SnowwhiteBotanicals</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>tensor(10.)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>tensor(10.)</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1468,13 +1728,13 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Quick &amp; efficient ordering.
-As described 
-Met expectations</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
+          <t>Quick efficient ordering As described Met expectations</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1486,21 +1746,34 @@
           <t>2021-05-12</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.4215</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>tensor(0.7140)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>tensor(0.2860)</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>tensor(0.4215)</t>
+        </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1515,8 +1788,10 @@
           <t>https://www.etsy.com/listing/714999731/valerian-root-valeriana-officinalis-l</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>714999731</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>tensor(714999731)</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1533,13 +1808,21 @@
           <t>HealthEmbassyLTD</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>484</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>tensor(484.)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1557,11 +1840,13 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>amazing product would definitely buy it again!!</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
+          <t>amazing product would definitely buy it again</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1573,19 +1858,32 @@
           <t>2021-04-29</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.7955</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>tensor(0.4140)</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>tensor(0.5860)</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>tensor(0.7955)</t>
+        </is>
       </c>
       <c r="U13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1602,8 +1900,10 @@
           <t>https://www.etsy.com/listing/714999731/valerian-root-valeriana-officinalis-l</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>714999731</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tensor(714999731)</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1620,13 +1920,21 @@
           <t>HealthEmbassyLTD</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>484</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>tensor(484.)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1644,11 +1952,13 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>great, prompt arrival, good quality</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>5</v>
+          <t>great prompt arrival good quality</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1660,19 +1970,32 @@
           <t>2020-10-13</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.7906</v>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>tensor(0.3000)</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>tensor(0.7000)</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>tensor(0.7906)</t>
+        </is>
       </c>
       <c r="U14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1689,8 +2012,10 @@
           <t>https://www.etsy.com/listing/952675620/organic-catnip-leaf-cut-sifted-tea</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>952675620</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>tensor(952675620)</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1707,13 +2032,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1734,8 +2067,10 @@
           <t>Very excited to try this</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>5</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1747,19 +2082,32 @@
           <t>2024-01-26</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.4005</v>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>tensor(0.5980)</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>tensor(0.4020)</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>tensor(0.4005)</t>
+        </is>
       </c>
       <c r="U15" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1776,8 +2124,10 @@
           <t>https://www.etsy.com/listing/952675620/organic-catnip-leaf-cut-sifted-tea</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>952675620</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>tensor(952675620)</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,13 +2144,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1818,11 +2176,13 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Came quickly after ordering. Haven&amp;#39;t given it to the cats yet! But it sure looks fresh!</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
+          <t>Came quickly after ordering Haven t given it to the cats yet But it sure looks fresh</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1834,19 +2194,32 @@
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.7568</v>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>tensor(0.6830)</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>tensor(0.3170)</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>tensor(0.7568)</t>
+        </is>
       </c>
       <c r="U16" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -1863,8 +2236,10 @@
           <t>https://www.etsy.com/listing/952675620/organic-catnip-leaf-cut-sifted-tea</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>952675620</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>tensor(952675620)</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1881,13 +2256,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1908,8 +2291,10 @@
           <t>This item matched the description</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>5</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1921,19 +2306,32 @@
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -1950,8 +2348,10 @@
           <t>https://www.etsy.com/listing/952675620/organic-catnip-leaf-cut-sifted-tea</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>952675620</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>tensor(952675620)</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,13 +2368,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1992,11 +2400,13 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Perfect, thank you! It was exactly as expected!</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
+          <t>Perfect thank you It was exactly as expected</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2008,19 +2418,32 @@
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.7772</v>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>tensor(0.4690)</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>tensor(0.5310)</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>tensor(0.7772)</t>
+        </is>
       </c>
       <c r="U18" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2037,8 +2460,10 @@
           <t>https://www.etsy.com/listing/1389662743/vata-dosha-tea-for-vata-dosha-organic</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1389662743</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>tensor(1389662743)</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,13 +2480,21 @@
           <t>NamasteBlendsTeas</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>186</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>tensor(186.)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>USD</t>
@@ -2079,11 +2512,13 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Really tasty, fast shipping. Thank you!</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
+          <t>Really tasty fast shipping Thank you</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2095,19 +2530,32 @@
           <t>2024-01-21</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.4199</v>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>tensor(0.6420)</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>tensor(0.3580)</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>tensor(0.4199)</t>
+        </is>
       </c>
       <c r="U19" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2124,8 +2572,10 @@
           <t>https://www.etsy.com/listing/776740225/royal-pain-tonic-herbal-tea-blend-all</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>776740225</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tensor(776740225)</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,13 +2592,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>USD</t>
@@ -2169,8 +2627,10 @@
           <t>i loved this product thank you so much</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>5</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2182,19 +2642,32 @@
           <t>2024-09-25</t>
         </is>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.7506</v>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>tensor(0.4840)</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>tensor(0.5160)</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>tensor(0.7506)</t>
+        </is>
       </c>
       <c r="U20" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2211,8 +2684,10 @@
           <t>https://www.etsy.com/listing/776740225/royal-pain-tonic-herbal-tea-blend-all</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>776740225</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tensor(776740225)</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,13 +2704,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>USD</t>
@@ -2253,11 +2736,13 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Awesome gift. The packaging was really great and shipping was fast.</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>5</v>
+          <t>Awesome gift The packaging was really great and shipping was fast</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2269,19 +2754,32 @@
           <t>2024-07-09</t>
         </is>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.908</v>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>tensor(0.4130)</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>tensor(0.5870)</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>tensor(0.9080)</t>
+        </is>
       </c>
       <c r="U21" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2298,8 +2796,10 @@
           <t>https://www.etsy.com/listing/776740225/royal-pain-tonic-herbal-tea-blend-all</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>776740225</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>tensor(776740225)</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2316,13 +2816,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>USD</t>
@@ -2343,8 +2851,10 @@
           <t>Good product</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>5</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2356,19 +2866,32 @@
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.4404</v>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>tensor(0.2560)</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>tensor(0.7440)</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>tensor(0.4404)</t>
+        </is>
       </c>
       <c r="U22" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2385,8 +2908,10 @@
           <t>https://www.etsy.com/listing/776740225/royal-pain-tonic-herbal-tea-blend-all</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>776740225</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>tensor(776740225)</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2403,13 +2928,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>USD</t>
@@ -2427,11 +2960,13 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Delicious and aids in cramping  will definitely continue to purchase from this seller</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>5</v>
+          <t>Delicious and aids in cramping will definitely continue to purchase from this seller</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2443,21 +2978,34 @@
           <t>2024-06-12</t>
         </is>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.7506</v>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>tensor(0.6320)</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>tensor(0.3680)</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>tensor(0.7506)</t>
+        </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2472,8 +3020,10 @@
           <t>https://www.etsy.com/listing/1439658956/poppy-seeds-whole-poppyseeds-natural</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>1439658956</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>tensor(1439658956)</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2490,14 +3040,20 @@
           <t>RootBarkLeaf</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>101</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8.529999999999999</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>tensor(101.)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>tensor(8.5300)</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2512,11 +3068,13 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Perfect for my spell work 🔮</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>5</v>
+          <t>Perfect for my spell work</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2528,19 +3086,32 @@
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.5719</v>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>tensor(0.6190)</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>tensor(0.3810)</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>tensor(0.5719)</t>
+        </is>
       </c>
       <c r="U24" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2557,8 +3128,10 @@
           <t>https://www.etsy.com/listing/1439658956/poppy-seeds-whole-poppyseeds-natural</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1439658956</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tensor(1439658956)</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,14 +3148,20 @@
           <t>RootBarkLeaf</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>101</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8.529999999999999</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>tensor(101.)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>tensor(8.5300)</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2597,11 +3176,13 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>The poppy seeds exceeded my expectations with the results that I achieved and the timely delivery.</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>5</v>
+          <t>The poppy seeds exceeded my expectations with the results that I achieved and the timely delivery</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2613,21 +3194,34 @@
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
           <t>neutral</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2642,8 +3236,10 @@
           <t>https://www.etsy.com/listing/1439658956/poppy-seeds-whole-poppyseeds-natural</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1439658956</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>tensor(1439658956)</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2660,14 +3256,20 @@
           <t>RootBarkLeaf</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>101</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8.529999999999999</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>tensor(101.)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>tensor(8.5300)</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2682,11 +3284,13 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Exactly what I wanted! I couldn&amp;#39;t be happier!</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>5</v>
+          <t>Exactly what I wanted I couldn t be happier</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2698,19 +3302,32 @@
           <t>2024-02-25</t>
         </is>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.637</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.6103</v>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>tensor(0.6370)</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>tensor(0.3630)</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>tensor(0.6103)</t>
+        </is>
       </c>
       <c r="U26" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2727,8 +3344,10 @@
           <t>https://www.etsy.com/listing/1439658956/poppy-seeds-whole-poppyseeds-natural</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1439658956</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>tensor(1439658956)</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2745,14 +3364,20 @@
           <t>RootBarkLeaf</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>101</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8.529999999999999</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>tensor(101.)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>tensor(8.5300)</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2767,11 +3392,13 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Item was as described. Shipping was fast. Would order again.</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>5</v>
+          <t>Item was as described Shipping was fast Would order again</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2783,19 +3410,32 @@
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -2812,8 +3452,10 @@
           <t>https://www.etsy.com/listing/908378353/heart-centre-tea-organic-herbal-calming</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>908378353</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>tensor(908378353)</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2833,14 +3475,20 @@
           <t>LivingThroughNature</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H28" t="n">
-        <v>137</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23.76</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>tensor(137.)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>tensor(23.7600)</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2859,11 +3507,13 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>This tea blend is sooo soothing and calming and have been drinking it on days I feel more emotional and anxious. Not to mention it has this amazing fruity, floral taste and looks so beautiful in your mug. Excellent value as well! I will most definitely be buying more when mine runs out.</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>5</v>
+          <t>This tea blend is sooo soothing and calming and have been drinking it on days I feel more emotional and anxious Not to mention it has this amazing fruity floral taste and looks so beautiful in your mug Excellent value as well I will most definitely be buying more when mine runs out</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2875,19 +3525,32 @@
           <t>2021-04-03</t>
         </is>
       </c>
-      <c r="Q28" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.9766</v>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>tensor(0.0310)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>tensor(0.5880)</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>tensor(0.3810)</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>tensor(0.9766)</t>
+        </is>
       </c>
       <c r="U28" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2904,8 +3567,10 @@
           <t>https://www.etsy.com/listing/811301867/super-strong-kanna-leaf-tincture-15ml</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>811301867</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>tensor(811301867)</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2922,14 +3587,20 @@
           <t>DreamCatcherBotanica</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2538</v>
-      </c>
-      <c r="I29" t="n">
-        <v>44.95</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>tensor(2538.)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>tensor(44.9500)</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2948,11 +3619,13 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>love this product. just as described. wonderful!</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>5</v>
+          <t>love this product just as described wonderful</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2964,19 +3637,32 @@
           <t>2024-09-04</t>
         </is>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.8478</v>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>tensor(0.3790)</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>tensor(0.6210)</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>tensor(0.8478)</t>
+        </is>
       </c>
       <c r="U29" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2993,8 +3679,10 @@
           <t>https://www.etsy.com/listing/811301867/super-strong-kanna-leaf-tincture-15ml</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>811301867</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>tensor(811301867)</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3011,14 +3699,20 @@
           <t>DreamCatcherBotanica</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2538</v>
-      </c>
-      <c r="I30" t="n">
-        <v>44.95</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>tensor(2538.)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>tensor(44.9500)</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -3037,11 +3731,13 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Great quality and fast shipping thank you!</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>5</v>
+          <t>Great quality and fast shipping thank you</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3053,19 +3749,32 @@
           <t>2024-08-15</t>
         </is>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.784</v>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>tensor(0.4200)</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>tensor(0.5800)</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>tensor(0.7840)</t>
+        </is>
       </c>
       <c r="U30" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3082,8 +3791,10 @@
           <t>https://www.etsy.com/listing/811301867/super-strong-kanna-leaf-tincture-15ml</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>811301867</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>tensor(811301867)</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3100,14 +3811,20 @@
           <t>DreamCatcherBotanica</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2538</v>
-      </c>
-      <c r="I31" t="n">
-        <v>44.95</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>tensor(2538.)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>tensor(44.9500)</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -3126,11 +3843,13 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Took a long time to receive but it did come. Thank you</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>4</v>
+          <t>Took a long time to receive but it did come Thank you</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>tensor(4.)</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3142,19 +3861,32 @@
           <t>2024-08-14</t>
         </is>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.5023</v>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>tensor(0.7720)</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>tensor(0.2280)</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>tensor(0.5023)</t>
+        </is>
       </c>
       <c r="U31" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3171,8 +3903,10 @@
           <t>https://www.etsy.com/listing/811301867/super-strong-kanna-leaf-tincture-15ml</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>811301867</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>tensor(811301867)</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3189,14 +3923,20 @@
           <t>DreamCatcherBotanica</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2538</v>
-      </c>
-      <c r="I32" t="n">
-        <v>44.95</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>tensor(2538.)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>tensor(44.9500)</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3215,11 +3955,13 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Quality,  potency, and consistency are always 100% with Dream Catcher Botanicals. Thank you!</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>5</v>
+          <t>Quality potency and consistency are always 100 with Dream Catcher Botanicals Thank you</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3231,19 +3973,32 @@
           <t>2024-08-04</t>
         </is>
       </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.697</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.5848</v>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>tensor(0.6970)</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>tensor(0.3030)</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>tensor(0.5848)</t>
+        </is>
       </c>
       <c r="U32" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3260,8 +4015,10 @@
           <t>https://www.etsy.com/listing/933820970/happy-pill-herbal-tincture-vegan</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>933820970</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>tensor(933820970)</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3278,13 +4035,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3302,11 +4067,13 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>First, I apologize for the late review. I’m only apologizing on the review because it holds no weight in the quality. The delay was all me waiting to ensure the first time batch wasn’t a fluke lol I have been on a holistic journey for over a year now trying to move myself away from western medicine. I am not a doctor so this is my own person experience with happy pill tincture. It is amazing to take the edge of anxiety off when going about my workday. I’m also working through some trauma which it definitely helps me to better cope with when I am hit with a memory ir flashback. This will now be a regular to my regimen for as along as they keep making it this way and I can afford it. I would and have recommended it to others.</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>5</v>
+          <t>First I apologize for the late review I m only apologizing on the review because it holds no weight in the quality The delay was all me waiting to ensure the first time batch wasn t a fluke lol I have been on a holistic journey for over a year now trying to move myself away from western medicine I am not a doctor so this is my own person experience with happy pill tincture It is amazing to take the edge of anxiety off when going about my workday I m also working through some trauma which it definitely helps me to better cope with when I am hit with a memory ir flashback This will now be a regular to my regimen for as along as they keep making it this way and I can afford it I would and have recommended it to others</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3318,21 +4085,34 @@
           <t>2024-09-22</t>
         </is>
       </c>
-      <c r="Q33" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.9325</v>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>tensor(0.0630)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>tensor(0.7900)</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>tensor(0.1480)</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>tensor(0.9325)</t>
+        </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3347,8 +4127,10 @@
           <t>https://www.etsy.com/listing/933820970/happy-pill-herbal-tincture-vegan</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>933820970</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>tensor(933820970)</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3365,13 +4147,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3392,8 +4182,10 @@
           <t>Super fast service very well packaged</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>5</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3405,19 +4197,32 @@
           <t>2024-09-10</t>
         </is>
       </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.7425</v>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>tensor(0.3890)</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>tensor(0.6110)</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>tensor(0.7425)</t>
+        </is>
       </c>
       <c r="U34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3434,8 +4239,10 @@
           <t>https://www.etsy.com/listing/933820970/happy-pill-herbal-tincture-vegan</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>933820970</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>tensor(933820970)</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3452,13 +4259,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3476,11 +4291,13 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Obviously it&amp;#39;s not going to taste great, but boy oh boy did it help with my pain and mood. I&amp;#39;d definitely recommend 👌. Also made me a tad bit sleepy, so be wary.</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>5</v>
+          <t>Obviously it s not going to taste great but boy oh boy did it help with my pain and mood I d definitely recommend Also made me a tad bit sleepy so be wary</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3492,21 +4309,34 @@
           <t>2024-08-26</t>
         </is>
       </c>
-      <c r="Q35" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.9489</v>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>tensor(0.0850)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>tensor(0.5140)</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>tensor(0.4020)</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>tensor(0.9489)</t>
+        </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3521,8 +4351,10 @@
           <t>https://www.etsy.com/listing/933820970/happy-pill-herbal-tincture-vegan</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>933820970</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>tensor(933820970)</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3539,13 +4371,21 @@
           <t>CrookedCrowsCO</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3270</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>tensor(3270.)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3563,11 +4403,13 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Simply the best! We highly recommend it. 💙</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>5</v>
+          <t>Simply the best We highly recommend it</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3579,19 +4421,32 @@
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.9097</v>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>tensor(0.3430)</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>tensor(0.6570)</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>tensor(0.9097)</t>
+        </is>
       </c>
       <c r="U36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3608,8 +4463,10 @@
           <t>https://www.etsy.com/listing/1487812833/valerian-root-chamomile-lemon-balm-tea</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1487812833</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>tensor(1487812833)</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3626,13 +4483,21 @@
           <t>Herbalmonkey</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H37" t="n">
-        <v>819</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>tensor(819.)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3650,11 +4515,13 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Amazing product and customer service! Thanks for free sample :) much appreciated</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>5</v>
+          <t>Amazing product and customer service Thanks for free sample much appreciated</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3666,19 +4533,32 @@
           <t>2023-12-30</t>
         </is>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.9485</v>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>tensor(0.2970)</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>tensor(0.7030)</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>tensor(0.9485)</t>
+        </is>
       </c>
       <c r="U37" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3695,8 +4575,10 @@
           <t>https://www.etsy.com/listing/1701833745/nebula-herbal-tincture-blend-mugwort</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1701833745</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>tensor(1701833745)</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,14 +4595,20 @@
           <t>BodhiExtracts</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3148</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>tensor(3148.)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>tensor(15.)</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3742,8 +4630,10 @@
           <t>Arrived on time and worked as expected</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>5</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3755,19 +4645,32 @@
           <t>2024-04-21</t>
         </is>
       </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U38" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -3784,8 +4687,10 @@
           <t>https://www.etsy.com/listing/1723026212/premium-quality-poppy-seed-tea-sprouting</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>1723026212</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>tensor(1723026212)</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3802,13 +4707,21 @@
           <t>WellnessHerba</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H39" t="n">
-        <v>712</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>tensor(712.)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3826,11 +4739,13 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Good product, but slow. Overall worth the money</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>5</v>
+          <t>Good product but slow Overall worth the money</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3842,19 +4757,32 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.5106000000000001</v>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>tensor(0.5830)</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>tensor(0.4170)</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>tensor(0.5106)</t>
+        </is>
       </c>
       <c r="U39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3871,8 +4799,10 @@
           <t>https://www.etsy.com/listing/1723026212/premium-quality-poppy-seed-tea-sprouting</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>1723026212</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>tensor(1723026212)</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3889,13 +4819,21 @@
           <t>WellnessHerba</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H40" t="n">
-        <v>712</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>tensor(712.)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3913,11 +4851,13 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Brilliant product! Exactly what they said it was and they even gave me a little gift. Much appreciated, thank you</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>5</v>
+          <t>Brilliant product Exactly what they said it was and they even gave me a little gift Much appreciated thank you</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3929,19 +4869,32 @@
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.9049</v>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>tensor(0.5670)</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>tensor(0.4330)</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>tensor(0.9049)</t>
+        </is>
       </c>
       <c r="U40" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3958,8 +4911,10 @@
           <t>https://www.etsy.com/listing/1725867962/dried-poppy-seed-tea-sprouting-papaver</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1725867962</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>tensor(1725867962)</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3976,13 +4931,21 @@
           <t>SpicyHomeInterior</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H41" t="n">
-        <v>869</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>tensor(869.)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4000,11 +4963,13 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Thank you item is as described n green👍</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>5</v>
+          <t>Thank you item is as described n green</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4016,19 +4981,32 @@
           <t>2024-08-09</t>
         </is>
       </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.3612</v>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>tensor(0.7830)</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>tensor(0.2170)</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>tensor(0.3612)</t>
+        </is>
       </c>
       <c r="U41" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4045,8 +5023,10 @@
           <t>https://www.etsy.com/listing/675584915/california-poppy-eschscholzia</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>675584915</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>tensor(675584915)</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4063,13 +5043,21 @@
           <t>SurfsideNaturals</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2963</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>tensor(2963.)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4087,11 +5075,13 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Fantastic quality and fast shipping! ❤️</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>5</v>
+          <t>Fantastic quality and fast shipping</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4103,19 +5093,32 @@
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.5983000000000001</v>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>tensor(0.6070)</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>tensor(0.3930)</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>tensor(0.5983)</t>
+        </is>
       </c>
       <c r="U42" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4132,8 +5135,10 @@
           <t>https://www.etsy.com/listing/675584915/california-poppy-eschscholzia</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>675584915</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>tensor(675584915)</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4150,13 +5155,21 @@
           <t>SurfsideNaturals</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2963</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>tensor(2963.)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4174,11 +5187,13 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>This herb aids in sleep. It works very well. My order arrived super fast!</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>5</v>
+          <t>This herb aids in sleep It works very well My order arrived super fast</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4190,19 +5205,32 @@
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.646</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.7639</v>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>tensor(0.6460)</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>tensor(0.3540)</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>tensor(0.7639)</t>
+        </is>
       </c>
       <c r="U43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4219,8 +5247,10 @@
           <t>https://www.etsy.com/listing/675584915/california-poppy-eschscholzia</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>675584915</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>tensor(675584915)</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,13 +5267,21 @@
           <t>SurfsideNaturals</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2963</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>tensor(2963.)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4264,8 +5302,10 @@
           <t>Clean product very nice</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>5</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4277,19 +5317,32 @@
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.6997</v>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>tensor(0.2570)</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>tensor(0.7430)</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>tensor(0.6997)</t>
+        </is>
       </c>
       <c r="U44" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4306,8 +5359,10 @@
           <t>https://www.etsy.com/listing/675584915/california-poppy-eschscholzia</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>675584915</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>tensor(675584915)</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4324,13 +5379,21 @@
           <t>SurfsideNaturals</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2963</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>tensor(2963.)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4348,11 +5411,13 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Arrived quickly and great quality!</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>5</v>
+          <t>Arrived quickly and great quality</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4364,19 +5429,32 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.6588000000000001</v>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>tensor(0.4770)</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>tensor(0.5230)</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>tensor(0.6588)</t>
+        </is>
       </c>
       <c r="U45" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4393,8 +5471,10 @@
           <t>https://www.etsy.com/listing/1600742037/2024-fresh-blue-poppy-seeds-for-tea-200g</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>1600742037</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>tensor(1600742037)</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4411,14 +5491,20 @@
           <t>BluePoppySeeds</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H46" t="n">
-        <v>53</v>
-      </c>
-      <c r="I46" t="n">
-        <v>23.18</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>tensor(3.5000)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>tensor(53.)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>tensor(23.1800)</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -4437,13 +5523,13 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>UPDATE:
-The seller informed me she cannot send with tracking.  And that&amp;#39;s why she never sent the info.  Be aware of this if you buy from her.  
-After alot of back and forth, I finally received my packages.  They were quite late and the seller never would provide the tracking numbers.  I thought I had been scammed but they did finally arrive. The quality of the item is ok.</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>4</v>
+          <t>UPDATE The seller informed me she cannot send with tracking And that s why she never sent the info Be aware of this if you buy from her After alot of back and forth I finally received my packages They were quite late and the seller never would provide the tracking numbers I thought I had been scammed but they did finally arrive The quality of the item is ok</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>tensor(4.)</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4455,21 +5541,34 @@
           <t>2024-04-19</t>
         </is>
       </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
           <t>neutral</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4484,8 +5583,10 @@
           <t>https://www.etsy.com/listing/1675849295/californian-poppy-eschscholzia</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1675849295</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>tensor(1675849295)</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4502,13 +5603,21 @@
           <t>Herbalmonkey</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H47" t="n">
-        <v>819</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>tensor(819.)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4529,8 +5638,10 @@
           <t>Enjoying working with this herb and learning more about it</t>
         </is>
       </c>
-      <c r="N47" t="n">
-        <v>5</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4542,19 +5653,32 @@
           <t>2024-07-14</t>
         </is>
       </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0.5266999999999999</v>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>tensor(0.7260)</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>tensor(0.2740)</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>tensor(0.5267)</t>
+        </is>
       </c>
       <c r="U47" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4571,8 +5695,10 @@
           <t>https://www.etsy.com/listing/1675849295/californian-poppy-eschscholzia</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1675849295</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>tensor(1675849295)</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4589,13 +5715,21 @@
           <t>Herbalmonkey</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H48" t="n">
-        <v>819</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>tensor(819.)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4613,11 +5747,13 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Excellent quality and service as always! Thank you so much 🙂</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>5</v>
+          <t>Excellent quality and service as always Thank you so much</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4629,19 +5765,32 @@
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0.8578</v>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>tensor(0.5140)</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>tensor(0.4860)</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>tensor(0.8578)</t>
+        </is>
       </c>
       <c r="U48" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4658,8 +5807,10 @@
           <t>https://www.etsy.com/listing/1675849295/californian-poppy-eschscholzia</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1675849295</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>tensor(1675849295)</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4676,13 +5827,21 @@
           <t>Herbalmonkey</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H49" t="n">
-        <v>819</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>tensor(819.)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4700,11 +5859,13 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>great quality, good for sleep</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>5</v>
+          <t>great quality good for sleep</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4716,19 +5877,32 @@
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.7906</v>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>tensor(0.3000)</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>tensor(0.7000)</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>tensor(0.7906)</t>
+        </is>
       </c>
       <c r="U49" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4745,8 +5919,10 @@
           <t>https://www.etsy.com/listing/1460330974/wild-poppy-tea-organic-pure-poppy-petals</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>1460330974</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>tensor(1460330974)</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,13 +5939,21 @@
           <t>DreamHerbsTemple</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4516</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>tensor(4516.)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4783,11 +5967,13 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Hopefully i&amp;#39;m able to continue such good food for my soul.</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>5</v>
+          <t>Hopefully i m able to continue such good food for my soul</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4799,19 +5985,32 @@
           <t>2024-09-17</t>
         </is>
       </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.6808</v>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>tensor(0.6160)</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>tensor(0.3840)</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>tensor(0.6808)</t>
+        </is>
       </c>
       <c r="U50" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4828,8 +6027,10 @@
           <t>https://www.etsy.com/listing/1460330974/wild-poppy-tea-organic-pure-poppy-petals</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>1460330974</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>tensor(1460330974)</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4846,13 +6047,21 @@
           <t>DreamHerbsTemple</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>4516</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>tensor(4516.)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4866,11 +6075,13 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Can&amp;#39;t wait to give it a try!</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>5</v>
+          <t>Can t wait to give it a try</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4882,21 +6093,34 @@
           <t>2024-08-13</t>
         </is>
       </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
           <t>neutral</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4911,8 +6135,10 @@
           <t>https://www.etsy.com/listing/1460330974/wild-poppy-tea-organic-pure-poppy-petals</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1460330974</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>tensor(1460330974)</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4929,13 +6155,21 @@
           <t>DreamHerbsTemple</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4516</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>tensor(4516.)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>USD</t>
@@ -4949,11 +6183,13 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Good soul food at a good price.</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>5</v>
+          <t>Good soul food at a good price</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4965,19 +6201,32 @@
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.7003</v>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>tensor(0.4630)</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>tensor(0.5370)</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>tensor(0.7003)</t>
+        </is>
       </c>
       <c r="U52" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4994,8 +6243,10 @@
           <t>https://www.etsy.com/listing/1460330974/wild-poppy-tea-organic-pure-poppy-petals</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1460330974</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>tensor(1460330974)</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,13 +6263,21 @@
           <t>DreamHerbsTemple</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H53" t="n">
-        <v>4516</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>tensor(4.8000)</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>tensor(4516.)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>USD</t>
@@ -5032,11 +6291,13 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Yet another successful delivery of good soul food.</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>5</v>
+          <t>Yet another successful delivery of good soul food</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5048,19 +6309,32 @@
           <t>2024-06-08</t>
         </is>
       </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0.7717000000000001</v>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>tensor(0.4720)</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>tensor(0.5280)</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>tensor(0.7717)</t>
+        </is>
       </c>
       <c r="U53" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -5077,8 +6351,10 @@
           <t>https://www.etsy.com/listing/946760116/california-poppy-loose-herb-organic-1lb</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>946760116</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>tensor(946760116)</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5095,13 +6371,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H54" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>USD</t>
@@ -5119,11 +6403,13 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>It works great...will buy again</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>5</v>
+          <t>It works great will buy again</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5135,21 +6421,34 @@
           <t>2024-09-10</t>
         </is>
       </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
           <t>neutral</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5164,8 +6463,10 @@
           <t>https://www.etsy.com/listing/946760116/california-poppy-loose-herb-organic-1lb</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>946760116</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>tensor(946760116)</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5182,13 +6483,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H55" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>USD</t>
@@ -5206,11 +6515,13 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Thank you can&amp;#39;t wait to use</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>5</v>
+          <t>Thank you can t wait to use</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5222,19 +6533,32 @@
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0.3612</v>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>tensor(0.6670)</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>tensor(0.3330)</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>tensor(0.3612)</t>
+        </is>
       </c>
       <c r="U55" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -5251,8 +6575,10 @@
           <t>https://www.etsy.com/listing/946760116/california-poppy-loose-herb-organic-1lb</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>946760116</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>tensor(946760116)</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5269,13 +6595,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>USD</t>
@@ -5293,11 +6627,13 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>I love this tea, will be buying more of it.  Thank 😊 🙏 you for such fast service.  I am very pleased.</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>5</v>
+          <t>I love this tea will be buying more of it Thank you for such fast service I am very pleased</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5309,19 +6645,32 @@
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0.9447</v>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>tensor(0.5770)</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>tensor(0.4230)</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>tensor(0.9447)</t>
+        </is>
       </c>
       <c r="U56" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -5338,8 +6687,10 @@
           <t>https://www.etsy.com/listing/946760116/california-poppy-loose-herb-organic-1lb</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>946760116</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>tensor(946760116)</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5356,13 +6707,21 @@
           <t>ShellyKongoHerbs</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>tensor(4.7000)</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>tensor(7747.)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>USD</t>
@@ -5380,11 +6739,13 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Item is just as described. Fast shipping</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>5</v>
+          <t>Item is just as described Fast shipping</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5396,19 +6757,32 @@
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>tensor(1.)</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
       </c>
       <c r="U57" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -5425,8 +6799,10 @@
           <t>https://www.etsy.com/listing/730184969/california-poppy-fresh-organic-plant</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>730184969</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>tensor(730184969)</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5443,13 +6819,21 @@
           <t>Myherbsforyou</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H58" t="n">
-        <v>9489</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>tensor(9489.)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>EUR</t>
@@ -5467,11 +6851,13 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Potent and effective tincture. Rich color/flavor. I use when feeling anxious/stressed and trying to sleep. I take 3-4 dropperfulls and it works every time.</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>5</v>
+          <t>Potent and effective tincture Rich color flavor I use when feeling anxious stressed and trying to sleep I take 3 4 dropperfulls and it works every time</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5483,19 +6869,32 @@
           <t>2024-09-13</t>
         </is>
       </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.802</v>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>tensor(0.7190)</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>tensor(0.2810)</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>tensor(0.8020)</t>
+        </is>
       </c>
       <c r="U58" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -5512,8 +6911,10 @@
           <t>https://www.etsy.com/listing/730184969/california-poppy-fresh-organic-plant</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>730184969</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>tensor(730184969)</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5530,13 +6931,21 @@
           <t>Myherbsforyou</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H59" t="n">
-        <v>9489</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>tensor(9489.)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>EUR</t>
@@ -5554,11 +6963,13 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>I had insomnia before using California Poppy tincture, and now I sleep like a baby without waking up in the wee hours of the morning. This is one of many great tinctures this seller produces.</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>5</v>
+          <t>I had insomnia before using California Poppy tincture and now I sleep like a baby without waking up in the wee hours of the morning This is one of many great tinctures this seller produces</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5570,19 +6981,32 @@
           <t>2024-09-09</t>
         </is>
       </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0.765</v>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>tensor(0.8330)</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>tensor(0.1670)</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>tensor(0.7650)</t>
+        </is>
       </c>
       <c r="U59" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -5599,8 +7023,10 @@
           <t>https://www.etsy.com/listing/730184969/california-poppy-fresh-organic-plant</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>730184969</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>tensor(730184969)</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5617,13 +7043,21 @@
           <t>Myherbsforyou</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H60" t="n">
-        <v>9489</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>tensor(9489.)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>EUR</t>
@@ -5641,11 +7075,13 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Repeat buyer of this item. Thank you!</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>5</v>
+          <t>Repeat buyer of this item Thank you</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5657,19 +7093,32 @@
           <t>2024-09-05</t>
         </is>
       </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0.4199</v>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>tensor(0.6820)</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>tensor(0.3180)</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>tensor(0.4199)</t>
+        </is>
       </c>
       <c r="U60" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -5686,8 +7135,10 @@
           <t>https://www.etsy.com/listing/730184969/california-poppy-fresh-organic-plant</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>730184969</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>tensor(730184969)</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5704,13 +7155,21 @@
           <t>Myherbsforyou</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9489</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>tensor(4.9000)</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>tensor(9489.)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>tensor(nan)</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>EUR</t>
@@ -5728,11 +7187,13 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Item arrived very quickly! Excited to start using it.</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>5</v>
+          <t>Item arrived very quickly Excited to start using it</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>tensor(5.)</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5744,19 +7205,32 @@
           <t>2024-08-19</t>
         </is>
       </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0.4534</v>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>tensor(0.)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>tensor(0.7290)</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>tensor(0.2710)</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>tensor(0.4534)</t>
+        </is>
       </c>
       <c r="U61" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
